--- a/inst/extdata/testDatacomplex.xlsx
+++ b/inst/extdata/testDatacomplex.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
   <si>
     <t>Sids</t>
   </si>
@@ -515,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,6 +614,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +952,7 @@
     <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
@@ -968,15 +986,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
+      <c r="C3" s="6">
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -985,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1070,14 @@
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
@@ -1069,9 +1093,14 @@
       <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1116,14 @@
       <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1104,6 +1139,12 @@
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1116,7 +1157,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1409,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1418,7 @@
     <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="39" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -1394,7 +1435,7 @@
       <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1411,7 +1452,7 @@
       <c r="D2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="36">
         <v>95</v>
       </c>
     </row>
@@ -1422,7 +1463,7 @@
       <c r="D3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="37">
         <v>112</v>
       </c>
     </row>
@@ -1433,7 +1474,7 @@
       <c r="D4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="37"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1490,7 @@
       <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="37">
         <v>119</v>
       </c>
       <c r="I5" s="19"/>
@@ -1461,7 +1502,7 @@
       <c r="D6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="37"/>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1512,7 @@
       <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="37"/>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,7 +1528,7 @@
       <c r="D8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="37">
         <v>119</v>
       </c>
       <c r="I8" s="19"/>
@@ -1505,7 +1546,7 @@
       <c r="D9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="37">
         <v>95</v>
       </c>
       <c r="I9" s="19"/>
@@ -1515,7 +1556,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="20"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="9">
+      <c r="E10" s="37">
         <v>112</v>
       </c>
       <c r="I10" s="19"/>
@@ -1533,7 +1574,7 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="37">
         <v>95</v>
       </c>
       <c r="I11" s="19"/>
@@ -1545,7 +1586,7 @@
       <c r="D12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="37">
         <v>119</v>
       </c>
       <c r="I12" s="19"/>
@@ -1563,7 +1604,7 @@
       <c r="D13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="37">
         <v>112</v>
       </c>
       <c r="I13" s="19"/>
@@ -1575,7 +1616,7 @@
       <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="38"/>
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1592,7 +1633,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
